--- a/BackTest/2020-01-20 BackTest FAB.xlsx
+++ b/BackTest/2020-01-20 BackTest FAB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-918629.2794</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-918574.2794</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>14.62</v>
@@ -521,7 +521,7 @@
         <v>-980475.7063</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>14.76</v>
@@ -562,7 +562,7 @@
         <v>-975657.9171999999</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>14.72</v>
@@ -603,7 +603,7 @@
         <v>-1002275.4532</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>14.85</v>
@@ -640,7 +640,7 @@
         <v>-1002275.4532</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>14.72</v>
@@ -681,7 +681,7 @@
         <v>-1002275.4532</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>14.72</v>
@@ -722,7 +722,7 @@
         <v>-1002275.4532</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>14.72</v>
@@ -759,7 +759,7 @@
         <v>-1002275.4532</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>14.72</v>
@@ -800,7 +800,7 @@
         <v>-1002275.4532</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>14.72</v>
@@ -841,7 +841,7 @@
         <v>-1001265.352189899</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>14.72</v>
@@ -878,7 +878,7 @@
         <v>-1024770.677189899</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>14.85</v>
@@ -919,7 +919,7 @@
         <v>-1024770.677189899</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>14.72</v>
@@ -960,7 +960,7 @@
         <v>-1006099.767989899</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>14.72</v>
@@ -1001,7 +1001,7 @@
         <v>-1009042.997789899</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>14.83</v>
@@ -1042,7 +1042,7 @@
         <v>-1061681.872589899</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>14.68</v>
@@ -1083,7 +1083,7 @@
         <v>-1061646.872589899</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>14.63</v>
@@ -1124,7 +1124,7 @@
         <v>-1061646.872589899</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>14.79</v>
@@ -1165,7 +1165,7 @@
         <v>-1061646.872589899</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>14.79</v>
@@ -1206,7 +1206,7 @@
         <v>-861646.8725898988</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>14.79</v>
@@ -1247,7 +1247,7 @@
         <v>-861646.8725898988</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>14.9</v>
@@ -1288,7 +1288,7 @@
         <v>-861646.8725898988</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>14.9</v>
@@ -1329,7 +1329,7 @@
         <v>-861646.8725898988</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>14.9</v>
@@ -1370,7 +1370,7 @@
         <v>-856281.4807898988</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>14.9</v>
@@ -1411,7 +1411,7 @@
         <v>-856248.4041898987</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>14.97</v>
@@ -1452,9 +1452,11 @@
         <v>-856301.6241898987</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>15.28</v>
+      </c>
       <c r="J27" t="n">
         <v>14.72</v>
       </c>
@@ -1491,9 +1493,11 @@
         <v>-891129.8635898987</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>15.2</v>
+      </c>
       <c r="J28" t="n">
         <v>14.72</v>
       </c>
@@ -1530,9 +1534,11 @@
         <v>-933697.9855898987</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>14.8</v>
+      </c>
       <c r="J29" t="n">
         <v>14.72</v>
       </c>
@@ -1569,9 +1575,11 @@
         <v>-971036.6241898986</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>14.71</v>
+      </c>
       <c r="J30" t="n">
         <v>14.72</v>
       </c>
@@ -1608,9 +1616,11 @@
         <v>-956794.4997898986</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>14.69</v>
+      </c>
       <c r="J31" t="n">
         <v>14.72</v>
       </c>
@@ -1647,9 +1657,11 @@
         <v>-947214.3007898986</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>14.8</v>
+      </c>
       <c r="J32" t="n">
         <v>14.72</v>
       </c>
@@ -1686,9 +1698,11 @@
         <v>-942372.0735898986</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>15.03</v>
+      </c>
       <c r="J33" t="n">
         <v>14.72</v>
       </c>
@@ -1725,9 +1739,11 @@
         <v>-912372.0735898986</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>15.04</v>
+      </c>
       <c r="J34" t="n">
         <v>14.72</v>
       </c>
@@ -1764,9 +1780,11 @@
         <v>-819668.0541898987</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>15.28</v>
+      </c>
       <c r="J35" t="n">
         <v>14.72</v>
       </c>
@@ -1803,9 +1821,11 @@
         <v>-739727.5523898987</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>15.29</v>
+      </c>
       <c r="J36" t="n">
         <v>14.72</v>
       </c>
@@ -1842,9 +1862,11 @@
         <v>-1075055.001389899</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>15.59</v>
+      </c>
       <c r="J37" t="n">
         <v>14.72</v>
       </c>
@@ -1881,9 +1903,11 @@
         <v>-1074055.001389899</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>15.4</v>
+      </c>
       <c r="J38" t="n">
         <v>14.72</v>
       </c>
@@ -1920,9 +1944,11 @@
         <v>-1081559.969189899</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>15.6</v>
+      </c>
       <c r="J39" t="n">
         <v>14.72</v>
       </c>
@@ -1959,9 +1985,11 @@
         <v>-1081559.969189899</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>15.4</v>
+      </c>
       <c r="J40" t="n">
         <v>14.72</v>
       </c>
@@ -1998,9 +2026,11 @@
         <v>-1081559.969189899</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>15.4</v>
+      </c>
       <c r="J41" t="n">
         <v>14.72</v>
       </c>
@@ -2037,9 +2067,11 @@
         <v>-1081595.921389899</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>15.4</v>
+      </c>
       <c r="J42" t="n">
         <v>14.72</v>
       </c>
@@ -2076,9 +2108,11 @@
         <v>-1081595.921389899</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>15.21</v>
+      </c>
       <c r="J43" t="n">
         <v>14.72</v>
       </c>
@@ -2115,7 +2149,7 @@
         <v>-1090492.711689899</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>15.21</v>
@@ -2156,7 +2190,7 @@
         <v>-1094010.613689899</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>15</v>
@@ -2197,7 +2231,7 @@
         <v>-1093310.613689899</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>14.9</v>
@@ -2238,9 +2272,11 @@
         <v>-1137375.645889899</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>15.3</v>
+      </c>
       <c r="J47" t="n">
         <v>14.72</v>
       </c>
@@ -2277,9 +2313,11 @@
         <v>-1137375.645889899</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>14.8</v>
+      </c>
       <c r="J48" t="n">
         <v>14.72</v>
       </c>
@@ -2316,9 +2354,11 @@
         <v>-1132822.889589899</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>14.8</v>
+      </c>
       <c r="J49" t="n">
         <v>14.72</v>
       </c>
@@ -2355,9 +2395,11 @@
         <v>-1128943.631989899</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>14.9</v>
+      </c>
       <c r="J50" t="n">
         <v>14.72</v>
       </c>
@@ -2394,7 +2436,7 @@
         <v>-1153918.211289899</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>15.17</v>
@@ -2435,7 +2477,7 @@
         <v>-1069423.467689899</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>15.15</v>
@@ -2476,7 +2518,7 @@
         <v>-1069271.467689899</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>15.2</v>
@@ -2517,7 +2559,7 @@
         <v>-1069271.467689899</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>15.58</v>
@@ -2558,7 +2600,7 @@
         <v>-893481.0309748797</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>15.58</v>
@@ -2599,7 +2641,7 @@
         <v>-893481.0309748797</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>16.27</v>
@@ -2640,9 +2682,11 @@
         <v>-834971.5322748797</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>16.27</v>
+      </c>
       <c r="J57" t="n">
         <v>14.72</v>
       </c>
@@ -2679,9 +2723,11 @@
         <v>-670335.4910748798</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>16.5</v>
+      </c>
       <c r="J58" t="n">
         <v>14.72</v>
       </c>
@@ -2718,9 +2764,11 @@
         <v>-435684.2711101571</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>17.05</v>
+      </c>
       <c r="J59" t="n">
         <v>14.72</v>
       </c>
@@ -2991,9 +3039,11 @@
         <v>-502624.6381619654</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>15.9</v>
+      </c>
       <c r="J66" t="n">
         <v>14.72</v>
       </c>
@@ -3030,9 +3080,11 @@
         <v>-480021.1610619654</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>16</v>
+      </c>
       <c r="J67" t="n">
         <v>14.72</v>
       </c>
@@ -3069,9 +3121,11 @@
         <v>-487890.0083619654</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>16.7</v>
+      </c>
       <c r="J68" t="n">
         <v>14.72</v>
       </c>
@@ -3108,9 +3162,11 @@
         <v>-487860.0083619654</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>16.2</v>
+      </c>
       <c r="J69" t="n">
         <v>14.72</v>
       </c>
@@ -3225,9 +3281,11 @@
         <v>-582982.0692619653</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>16</v>
+      </c>
       <c r="J72" t="n">
         <v>14.72</v>
       </c>
@@ -3264,9 +3322,11 @@
         <v>-573990.0372619653</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>15.77</v>
+      </c>
       <c r="J73" t="n">
         <v>14.72</v>
       </c>
@@ -3303,9 +3363,11 @@
         <v>-573990.0372619653</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>15.8</v>
+      </c>
       <c r="J74" t="n">
         <v>14.72</v>
       </c>
@@ -3342,9 +3404,11 @@
         <v>-591503.3812619654</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>15.8</v>
+      </c>
       <c r="J75" t="n">
         <v>14.72</v>
       </c>
@@ -3381,9 +3445,11 @@
         <v>-591503.3812619654</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>15.71</v>
+      </c>
       <c r="J76" t="n">
         <v>14.72</v>
       </c>
@@ -3420,9 +3486,11 @@
         <v>-739812.9277619654</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>15.71</v>
+      </c>
       <c r="J77" t="n">
         <v>14.72</v>
       </c>
@@ -3459,9 +3527,11 @@
         <v>-620063.6042619655</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>15.7</v>
+      </c>
       <c r="J78" t="n">
         <v>14.72</v>
       </c>
@@ -3498,9 +3568,11 @@
         <v>-619903.6042619655</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>15.99</v>
+      </c>
       <c r="J79" t="n">
         <v>14.72</v>
       </c>
@@ -3537,9 +3609,11 @@
         <v>-722053.6042619655</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>16.16</v>
+      </c>
       <c r="J80" t="n">
         <v>14.72</v>
       </c>
@@ -3576,9 +3650,11 @@
         <v>-698179.6042619655</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>16.13</v>
+      </c>
       <c r="J81" t="n">
         <v>14.72</v>
       </c>
@@ -3927,9 +4003,11 @@
         <v>-748077.1518619654</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>15.85</v>
+      </c>
       <c r="J90" t="n">
         <v>14.72</v>
       </c>
@@ -3966,9 +4044,11 @@
         <v>-748046.1518619654</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>16.49</v>
+      </c>
       <c r="J91" t="n">
         <v>14.72</v>
       </c>
@@ -4005,9 +4085,11 @@
         <v>-814740.1544619654</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>16.58</v>
+      </c>
       <c r="J92" t="n">
         <v>14.72</v>
       </c>
@@ -4044,9 +4126,11 @@
         <v>-813781.1544619654</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>16.04</v>
+      </c>
       <c r="J93" t="n">
         <v>14.72</v>
       </c>
@@ -4083,9 +4167,11 @@
         <v>-802522.4121619654</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>16.1</v>
+      </c>
       <c r="J94" t="n">
         <v>14.72</v>
       </c>
@@ -4122,9 +4208,11 @@
         <v>-804395.2565619653</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>16.34</v>
+      </c>
       <c r="J95" t="n">
         <v>14.72</v>
       </c>
@@ -4161,9 +4249,11 @@
         <v>-806089.9216619653</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>15.86</v>
+      </c>
       <c r="J96" t="n">
         <v>14.72</v>
       </c>
@@ -4200,9 +4290,11 @@
         <v>-782502.6346619653</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>15.8</v>
+      </c>
       <c r="J97" t="n">
         <v>14.72</v>
       </c>
@@ -4239,9 +4331,11 @@
         <v>-784802.6346619653</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>16.19</v>
+      </c>
       <c r="J98" t="n">
         <v>14.72</v>
       </c>
@@ -4278,9 +4372,11 @@
         <v>-809777.2139619653</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>16.17</v>
+      </c>
       <c r="J99" t="n">
         <v>14.72</v>
       </c>
@@ -4317,9 +4413,11 @@
         <v>-788278.3279619652</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>15.62</v>
+      </c>
       <c r="J100" t="n">
         <v>14.72</v>
       </c>
@@ -4356,9 +4454,11 @@
         <v>-809162.6409619652</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>16.09</v>
+      </c>
       <c r="J101" t="n">
         <v>14.72</v>
       </c>
@@ -4395,9 +4495,11 @@
         <v>-793893.1848619652</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>15.46</v>
+      </c>
       <c r="J102" t="n">
         <v>14.72</v>
       </c>
@@ -4434,9 +4536,11 @@
         <v>-793926.1848619652</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>16.06</v>
+      </c>
       <c r="J103" t="n">
         <v>14.72</v>
       </c>
@@ -4473,9 +4577,11 @@
         <v>-793926.1848619652</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>15.79</v>
+      </c>
       <c r="J104" t="n">
         <v>14.72</v>
       </c>
@@ -4512,9 +4618,11 @@
         <v>-793926.1848619652</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>15.79</v>
+      </c>
       <c r="J105" t="n">
         <v>14.72</v>
       </c>
@@ -4551,9 +4659,11 @@
         <v>-793926.1848619652</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>15.79</v>
+      </c>
       <c r="J106" t="n">
         <v>14.72</v>
       </c>
@@ -4590,9 +4700,11 @@
         <v>-791020.5166619653</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>15.79</v>
+      </c>
       <c r="J107" t="n">
         <v>14.72</v>
       </c>
@@ -4629,9 +4741,11 @@
         <v>-791020.5166619653</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>15.84</v>
+      </c>
       <c r="J108" t="n">
         <v>14.72</v>
       </c>
@@ -4668,9 +4782,11 @@
         <v>-891020.5166619653</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>15.84</v>
+      </c>
       <c r="J109" t="n">
         <v>14.72</v>
       </c>
@@ -4707,9 +4823,11 @@
         <v>-881235.2947619653</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>15.79</v>
+      </c>
       <c r="J110" t="n">
         <v>14.72</v>
       </c>
@@ -4746,9 +4864,11 @@
         <v>-876842.7423619652</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>16</v>
+      </c>
       <c r="J111" t="n">
         <v>14.72</v>
       </c>
@@ -10674,7 +10794,7 @@
         <v>4805283.67898553</v>
       </c>
       <c r="H263" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="n">
@@ -10682,15 +10802,13 @@
       </c>
       <c r="K263" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L263" t="n">
-        <v>1.353695652173913</v>
-      </c>
-      <c r="M263" t="n">
-        <v>1.015731874145007</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10715,11 +10833,17 @@
         <v>4632695.73588553</v>
       </c>
       <c r="H264" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10748,11 +10872,17 @@
         <v>5146588.80638553</v>
       </c>
       <c r="H265" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10784,8 +10914,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10817,8 +10953,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10850,8 +10992,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10883,8 +11031,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10916,8 +11070,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10949,8 +11109,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10982,8 +11148,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -11015,8 +11187,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -11048,8 +11226,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -11081,8 +11265,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -11114,8 +11304,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -11147,8 +11343,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -11180,8 +11382,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -11213,8 +11421,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -11246,8 +11460,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -11279,8 +11499,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11312,8 +11538,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11345,8 +11577,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11378,8 +11616,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11411,8 +11655,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11444,8 +11694,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11477,8 +11733,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11510,8 +11772,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11543,8 +11811,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11576,8 +11850,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11609,8 +11889,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11642,8 +11928,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11675,8 +11967,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11708,8 +12006,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11741,8 +12045,14 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11774,8 +12084,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11807,8 +12123,14 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11840,8 +12162,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11873,8 +12201,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11906,8 +12240,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11939,8 +12279,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11972,8 +12318,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -12005,8 +12357,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -12038,8 +12396,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -12071,8 +12435,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -12104,8 +12474,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -12137,8 +12513,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -12170,8 +12552,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -12203,8 +12591,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -12236,8 +12630,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -12269,8 +12669,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12302,8 +12708,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12335,8 +12747,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12368,8 +12786,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12401,8 +12825,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12434,8 +12864,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12467,8 +12903,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12500,8 +12942,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12533,8 +12981,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12566,8 +13020,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12599,8 +13059,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12632,8 +13098,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12665,8 +13137,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12698,8 +13176,14 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12731,8 +13215,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12764,8 +13254,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12797,8 +13293,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12830,8 +13332,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12863,8 +13371,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12896,8 +13410,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12929,8 +13449,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12962,8 +13488,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12995,8 +13527,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -13028,8 +13566,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -13061,8 +13605,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -13094,8 +13644,14 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -13127,8 +13683,14 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -13160,8 +13722,14 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -13193,8 +13761,14 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -13226,8 +13800,14 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13259,8 +13839,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13292,8 +13878,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13325,8 +13917,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13358,8 +13956,14 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13391,8 +13995,14 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13424,8 +14034,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13457,8 +14073,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13490,8 +14112,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13523,8 +14151,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13556,8 +14190,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13589,8 +14229,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13622,8 +14268,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13655,8 +14307,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13688,8 +14346,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13721,8 +14385,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13754,8 +14424,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13787,8 +14463,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13820,8 +14502,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13853,8 +14541,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13886,8 +14580,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13919,8 +14619,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13952,8 +14658,14 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13985,8 +14697,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -14018,8 +14736,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -14048,11 +14772,17 @@
         <v>3921546.826721489</v>
       </c>
       <c r="H365" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -14084,8 +14814,14 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -14117,8 +14853,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -14150,8 +14892,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14183,8 +14931,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14216,8 +14970,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14246,11 +15006,17 @@
         <v>4028511.097658526</v>
       </c>
       <c r="H371" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14279,11 +15045,17 @@
         <v>3777797.923858526</v>
       </c>
       <c r="H372" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14312,11 +15084,17 @@
         <v>3871401.051358526</v>
       </c>
       <c r="H373" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14345,11 +15123,17 @@
         <v>3928615.345058526</v>
       </c>
       <c r="H374" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14378,11 +15162,17 @@
         <v>4034056.126754502</v>
       </c>
       <c r="H375" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14411,11 +15201,17 @@
         <v>4559396.814158525</v>
       </c>
       <c r="H376" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14444,11 +15240,17 @@
         <v>4864430.126023241</v>
       </c>
       <c r="H377" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14477,11 +15279,17 @@
         <v>4747411.549523241</v>
       </c>
       <c r="H378" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14510,11 +15318,17 @@
         <v>4758045.456223241</v>
       </c>
       <c r="H379" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14543,11 +15357,17 @@
         <v>4758045.456223241</v>
       </c>
       <c r="H380" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14576,11 +15396,17 @@
         <v>5024598.799082713</v>
       </c>
       <c r="H381" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14612,8 +15438,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14645,8 +15477,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14678,8 +15516,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14708,11 +15552,17 @@
         <v>7450166.509571063</v>
       </c>
       <c r="H385" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14741,11 +15591,17 @@
         <v>8074137.355873813</v>
       </c>
       <c r="H386" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14774,11 +15630,17 @@
         <v>7757471.355769896</v>
       </c>
       <c r="H387" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14807,11 +15669,17 @@
         <v>8081057.913969896</v>
       </c>
       <c r="H388" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14840,11 +15708,17 @@
         <v>6943752.010623084</v>
       </c>
       <c r="H389" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14876,8 +15750,14 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14906,11 +15786,17 @@
         <v>9710692.197409423</v>
       </c>
       <c r="H391" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14942,8 +15828,14 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14972,11 +15864,17 @@
         <v>10360299.09468742</v>
       </c>
       <c r="H393" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -15005,11 +15903,17 @@
         <v>14242209.58014214</v>
       </c>
       <c r="H394" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -15038,11 +15942,17 @@
         <v>13675746.40942935</v>
       </c>
       <c r="H395" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -15071,11 +15981,17 @@
         <v>14199515.43340082</v>
       </c>
       <c r="H396" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -15104,11 +16020,17 @@
         <v>12813145.30180082</v>
       </c>
       <c r="H397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -15137,11 +16059,17 @@
         <v>12108722.66203268</v>
       </c>
       <c r="H398" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -15170,11 +16098,17 @@
         <v>11428494.96117525</v>
       </c>
       <c r="H399" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -15206,8 +16140,14 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -15239,8 +16179,14 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -15272,8 +16218,14 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15305,8 +16257,14 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15335,11 +16293,17 @@
         <v>13943737.09335572</v>
       </c>
       <c r="H404" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15368,11 +16332,17 @@
         <v>13762566.57742844</v>
       </c>
       <c r="H405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15401,11 +16371,17 @@
         <v>13165534.48164673</v>
       </c>
       <c r="H406" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15437,8 +16413,14 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15470,8 +16452,14 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15500,11 +16488,17 @@
         <v>13170115.80513529</v>
       </c>
       <c r="H409" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15536,8 +16530,14 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15569,8 +16569,14 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15599,11 +16605,17 @@
         <v>13352301.51584702</v>
       </c>
       <c r="H412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15632,11 +16644,17 @@
         <v>13573931.85841948</v>
       </c>
       <c r="H413" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15668,8 +16686,14 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15701,8 +16725,14 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15731,11 +16761,17 @@
         <v>15240820.01654225</v>
       </c>
       <c r="H416" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15764,11 +16800,17 @@
         <v>14121931.18132881</v>
       </c>
       <c r="H417" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15800,8 +16842,14 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15833,8 +16881,14 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15866,8 +16920,14 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15896,11 +16956,17 @@
         <v>17010111.44720728</v>
       </c>
       <c r="H421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15932,8 +16998,14 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15965,8 +17037,14 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15998,8 +17076,14 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -16031,8 +17115,14 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -16064,8 +17154,14 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -16097,8 +17193,14 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -16127,15 +17229,23 @@
         <v>17899280.96754245</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L428" t="n">
-        <v>1</v>
-      </c>
-      <c r="M428" t="inlineStr"/>
+        <v>1.639021739130435</v>
+      </c>
+      <c r="M428" t="n">
+        <v>1.015731874145007</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" s="1" t="n">
@@ -16160,7 +17270,7 @@
         <v>17474053.98264245</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -16193,7 +17303,7 @@
         <v>17805697.51254245</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -16226,7 +17336,7 @@
         <v>18057806.84534245</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -16259,7 +17369,7 @@
         <v>17745706.76204245</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -16292,7 +17402,7 @@
         <v>16910164.42978657</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -16325,7 +17435,7 @@
         <v>16258736.35093145</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -16358,7 +17468,7 @@
         <v>15237641.94548196</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -16391,7 +17501,7 @@
         <v>15352426.57708196</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -16424,7 +17534,7 @@
         <v>15660362.53688324</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -16457,7 +17567,7 @@
         <v>15296620.25408324</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -16490,7 +17600,7 @@
         <v>14910099.09198324</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -16523,7 +17633,7 @@
         <v>15197225.97238324</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -16556,7 +17666,7 @@
         <v>15335082.82928324</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -16589,7 +17699,7 @@
         <v>14944462.44253049</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -16622,7 +17732,7 @@
         <v>14708680.79093049</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -16655,7 +17765,7 @@
         <v>14708680.79093049</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -16688,7 +17798,7 @@
         <v>14507340.87625317</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -16721,7 +17831,7 @@
         <v>14688896.6438731</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -16754,7 +17864,7 @@
         <v>14814969.6675731</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -16787,7 +17897,7 @@
         <v>14875807.9836731</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -16820,7 +17930,7 @@
         <v>14652335.13727283</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -16853,7 +17963,7 @@
         <v>14513195.03677283</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -16886,7 +17996,7 @@
         <v>14515589.97576967</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -16919,7 +18029,7 @@
         <v>14506819.16453331</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -16985,7 +18095,7 @@
         <v>14468940.41163331</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -17018,7 +18128,7 @@
         <v>14504886.12292671</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -17051,7 +18161,7 @@
         <v>14557222.59453331</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -17348,7 +18458,7 @@
         <v>13369690.17825831</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -17381,7 +18491,7 @@
         <v>13369499.00475831</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -17414,7 +18524,7 @@
         <v>13369499.00475831</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -17447,7 +18557,7 @@
         <v>13417166.52985831</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -17480,7 +18590,7 @@
         <v>13417166.52985831</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -17513,7 +18623,7 @@
         <v>12648583.99885831</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -17546,7 +18656,7 @@
         <v>12781114.95505831</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -17579,7 +18689,7 @@
         <v>12555250.17895831</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -17612,7 +18722,7 @@
         <v>12776563.02775831</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -17645,7 +18755,7 @@
         <v>12564047.42361678</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -17678,7 +18788,7 @@
         <v>12909655.99321678</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -17711,7 +18821,7 @@
         <v>13030261.99787419</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -17744,7 +18854,7 @@
         <v>13076164.95917419</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -17777,7 +18887,7 @@
         <v>13253147.98247419</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -17810,7 +18920,7 @@
         <v>12903774.94387419</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -17843,7 +18953,7 @@
         <v>12903774.94387419</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -17876,7 +18986,7 @@
         <v>12769701.02687419</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -17909,7 +19019,7 @@
         <v>12235217.30017419</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -17942,7 +19052,7 @@
         <v>12386549.74617419</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -18074,7 +19184,7 @@
         <v>12165868.53064172</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -18107,7 +19217,7 @@
         <v>11857030.00344172</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -18140,7 +19250,7 @@
         <v>11933379.86494172</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -18173,7 +19283,7 @@
         <v>11627651.57464172</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -18206,7 +19316,7 @@
         <v>11107317.27064172</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -18239,7 +19349,7 @@
         <v>10529969.28744172</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -18272,7 +19382,7 @@
         <v>10581027.74274172</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -18305,7 +19415,7 @@
         <v>11059295.59304172</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -19295,7 +20405,7 @@
         <v>11377103.54308919</v>
       </c>
       <c r="H524" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -19328,7 +20438,7 @@
         <v>11680923.73811744</v>
       </c>
       <c r="H525" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -19361,7 +20471,7 @@
         <v>12109391.68045521</v>
       </c>
       <c r="H526" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -19394,7 +20504,7 @@
         <v>11897697.15684549</v>
       </c>
       <c r="H527" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -19427,7 +20537,7 @@
         <v>11774060.02505853</v>
       </c>
       <c r="H528" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -19460,7 +20570,7 @@
         <v>11932876.01283497</v>
       </c>
       <c r="H529" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -19493,7 +20603,7 @@
         <v>12413934.29195853</v>
       </c>
       <c r="H530" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -19526,7 +20636,7 @@
         <v>11918602.86844814</v>
       </c>
       <c r="H531" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -19559,7 +20669,7 @@
         <v>12164276.75794814</v>
       </c>
       <c r="H532" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -19592,7 +20702,7 @@
         <v>12691920.04760182</v>
       </c>
       <c r="H533" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -19625,7 +20735,7 @@
         <v>12636391.03246137</v>
       </c>
       <c r="H534" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -19658,7 +20768,7 @@
         <v>12636391.03246137</v>
       </c>
       <c r="H535" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -19691,7 +20801,7 @@
         <v>12482151.68617142</v>
       </c>
       <c r="H536" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -19724,7 +20834,7 @@
         <v>12355883.14407142</v>
       </c>
       <c r="H537" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -19757,7 +20867,7 @@
         <v>12438713.43487142</v>
       </c>
       <c r="H538" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -19790,7 +20900,7 @@
         <v>12498902.45301821</v>
       </c>
       <c r="H539" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -19823,7 +20933,7 @@
         <v>12498902.45301821</v>
       </c>
       <c r="H540" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -19856,7 +20966,7 @@
         <v>12370200.63604038</v>
       </c>
       <c r="H541" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -19889,7 +20999,7 @@
         <v>12370200.63604038</v>
       </c>
       <c r="H542" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -19922,7 +21032,7 @@
         <v>12332163.57054038</v>
       </c>
       <c r="H543" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -19955,7 +21065,7 @@
         <v>12332163.57054038</v>
       </c>
       <c r="H544" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -19988,7 +21098,7 @@
         <v>12354771.80794038</v>
       </c>
       <c r="H545" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -20021,7 +21131,7 @@
         <v>12297658.89484038</v>
       </c>
       <c r="H546" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -20054,7 +21164,7 @@
         <v>12300923.35309185</v>
       </c>
       <c r="H547" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -20087,7 +21197,7 @@
         <v>12296449.15229185</v>
       </c>
       <c r="H548" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -20120,7 +21230,7 @@
         <v>12389470.69729185</v>
       </c>
       <c r="H549" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -20153,7 +21263,7 @@
         <v>12373347.41539185</v>
       </c>
       <c r="H550" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -20186,7 +21296,7 @@
         <v>12359958.11199185</v>
       </c>
       <c r="H551" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -20219,7 +21329,7 @@
         <v>12380484.16719185</v>
       </c>
       <c r="H552" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -20252,7 +21362,7 @@
         <v>12380484.16719185</v>
       </c>
       <c r="H553" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -20285,7 +21395,7 @@
         <v>12318278.49929185</v>
       </c>
       <c r="H554" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -20318,7 +21428,7 @@
         <v>12279521.67059185</v>
       </c>
       <c r="H555" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -20351,7 +21461,7 @@
         <v>12394683.32407578</v>
       </c>
       <c r="H556" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -20384,7 +21494,7 @@
         <v>12302982.52447578</v>
       </c>
       <c r="H557" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -20417,7 +21527,7 @@
         <v>12137844.84715422</v>
       </c>
       <c r="H558" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -20450,7 +21560,7 @@
         <v>12292631.18502741</v>
       </c>
       <c r="H559" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -20483,7 +21593,7 @@
         <v>12288314.27642741</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -20494,6 +21604,6 @@
       <c r="M560" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest FAB.xlsx
+++ b/BackTest/2020-01-20 BackTest FAB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1944,11 +1944,9 @@
         <v>-1081559.969189899</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>15.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
         <v>14.72</v>
       </c>
@@ -1985,11 +1983,9 @@
         <v>-1081559.969189899</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>15.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
         <v>14.72</v>
       </c>
@@ -2026,11 +2022,9 @@
         <v>-1081559.969189899</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>15.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
         <v>14.72</v>
       </c>
@@ -2067,11 +2061,9 @@
         <v>-1081595.921389899</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>15.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
         <v>14.72</v>
       </c>
@@ -2559,11 +2551,9 @@
         <v>-1069271.467689899</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>15.58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
         <v>14.72</v>
       </c>
@@ -2600,11 +2590,9 @@
         <v>-893481.0309748797</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>15.58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
         <v>14.72</v>
       </c>
@@ -2641,11 +2629,9 @@
         <v>-893481.0309748797</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>16.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
         <v>14.72</v>
       </c>
@@ -2682,11 +2668,9 @@
         <v>-834971.5322748797</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>16.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
         <v>14.72</v>
       </c>
@@ -2723,11 +2707,9 @@
         <v>-670335.4910748798</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>16.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
         <v>14.72</v>
       </c>
@@ -2764,11 +2746,9 @@
         <v>-435684.2711101571</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>17.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
         <v>14.72</v>
       </c>
@@ -3039,11 +3019,9 @@
         <v>-502624.6381619654</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>15.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
         <v>14.72</v>
       </c>
@@ -3080,11 +3058,9 @@
         <v>-480021.1610619654</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
         <v>14.72</v>
       </c>
@@ -3121,11 +3097,9 @@
         <v>-487890.0083619654</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>16.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
         <v>14.72</v>
       </c>
@@ -3162,11 +3136,9 @@
         <v>-487860.0083619654</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>16.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
         <v>14.72</v>
       </c>
@@ -3281,11 +3253,9 @@
         <v>-582982.0692619653</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
         <v>14.72</v>
       </c>
@@ -3322,11 +3292,9 @@
         <v>-573990.0372619653</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>15.77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
         <v>14.72</v>
       </c>
@@ -3363,11 +3331,9 @@
         <v>-573990.0372619653</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>15.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
         <v>14.72</v>
       </c>
@@ -3404,11 +3370,9 @@
         <v>-591503.3812619654</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>15.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
         <v>14.72</v>
       </c>
@@ -3445,11 +3409,9 @@
         <v>-591503.3812619654</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>15.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
         <v>14.72</v>
       </c>
@@ -3486,11 +3448,9 @@
         <v>-739812.9277619654</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>15.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
         <v>14.72</v>
       </c>
@@ -3527,11 +3487,9 @@
         <v>-620063.6042619655</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>15.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
         <v>14.72</v>
       </c>
@@ -3568,11 +3526,9 @@
         <v>-619903.6042619655</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>15.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
         <v>14.72</v>
       </c>
@@ -3609,11 +3565,9 @@
         <v>-722053.6042619655</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>16.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
         <v>14.72</v>
       </c>
@@ -3650,11 +3604,9 @@
         <v>-698179.6042619655</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>16.13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
         <v>14.72</v>
       </c>
@@ -4003,11 +3955,9 @@
         <v>-748077.1518619654</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>15.85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
         <v>14.72</v>
       </c>
@@ -4044,11 +3994,9 @@
         <v>-748046.1518619654</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>16.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
         <v>14.72</v>
       </c>
@@ -4085,11 +4033,9 @@
         <v>-814740.1544619654</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>16.58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
         <v>14.72</v>
       </c>
@@ -4126,11 +4072,9 @@
         <v>-813781.1544619654</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>16.04</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
         <v>14.72</v>
       </c>
@@ -4167,11 +4111,9 @@
         <v>-802522.4121619654</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>16.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
         <v>14.72</v>
       </c>
@@ -4208,11 +4150,9 @@
         <v>-804395.2565619653</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>16.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
         <v>14.72</v>
       </c>
@@ -4249,11 +4189,9 @@
         <v>-806089.9216619653</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>15.86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
         <v>14.72</v>
       </c>
@@ -4290,11 +4228,9 @@
         <v>-782502.6346619653</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>15.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
         <v>14.72</v>
       </c>
@@ -4331,11 +4267,9 @@
         <v>-784802.6346619653</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>16.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
         <v>14.72</v>
       </c>
@@ -4372,11 +4306,9 @@
         <v>-809777.2139619653</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>16.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
         <v>14.72</v>
       </c>
@@ -4413,11 +4345,9 @@
         <v>-788278.3279619652</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>15.62</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
         <v>14.72</v>
       </c>
@@ -4454,11 +4384,9 @@
         <v>-809162.6409619652</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>16.09</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
         <v>14.72</v>
       </c>
@@ -4495,11 +4423,9 @@
         <v>-793893.1848619652</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>15.46</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
         <v>14.72</v>
       </c>
@@ -4536,11 +4462,9 @@
         <v>-793926.1848619652</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>16.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
         <v>14.72</v>
       </c>
@@ -4577,11 +4501,9 @@
         <v>-793926.1848619652</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>15.79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
         <v>14.72</v>
       </c>
@@ -4618,11 +4540,9 @@
         <v>-793926.1848619652</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>15.79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
         <v>14.72</v>
       </c>
@@ -4659,11 +4579,9 @@
         <v>-793926.1848619652</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>15.79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
         <v>14.72</v>
       </c>
@@ -4700,11 +4618,9 @@
         <v>-791020.5166619653</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>15.79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
         <v>14.72</v>
       </c>
@@ -4741,11 +4657,9 @@
         <v>-791020.5166619653</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>15.84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
         <v>14.72</v>
       </c>
@@ -4782,11 +4696,9 @@
         <v>-891020.5166619653</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>15.84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
         <v>14.72</v>
       </c>
@@ -4823,11 +4735,9 @@
         <v>-881235.2947619653</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>15.79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
         <v>14.72</v>
       </c>
@@ -4864,11 +4774,9 @@
         <v>-876842.7423619652</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
         <v>14.72</v>
       </c>
@@ -10716,7 +10624,7 @@
         <v>4372527.422965665</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="n">
@@ -10724,13 +10632,15 @@
       </c>
       <c r="K261" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+        <v>1.360489130434783</v>
+      </c>
+      <c r="M261" t="n">
+        <v>1.015731874145007</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10758,14 +10668,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10797,14 +10701,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10836,14 +10734,8 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10875,14 +10767,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10914,14 +10800,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10953,14 +10833,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10992,14 +10866,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -11031,14 +10899,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -11070,14 +10932,8 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -11109,14 +10965,8 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -11148,14 +10998,8 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -11187,14 +11031,8 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -11226,14 +11064,8 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -11265,14 +11097,8 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -11304,14 +11130,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -11343,14 +11163,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -11382,14 +11196,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -11421,14 +11229,8 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -11460,14 +11262,8 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -11499,14 +11295,8 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11535,17 +11325,11 @@
         <v>4057090.205077283</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11574,17 +11358,11 @@
         <v>4045216.586877283</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11613,17 +11391,11 @@
         <v>4329731.590121223</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11652,17 +11424,11 @@
         <v>4432627.188021223</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11691,17 +11457,11 @@
         <v>4534779.826377284</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11730,17 +11490,11 @@
         <v>4573084.420877283</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11769,17 +11523,11 @@
         <v>4583432.668677283</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11808,17 +11556,11 @@
         <v>4519229.818777284</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11847,17 +11589,11 @@
         <v>4600940.766577284</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11886,17 +11622,11 @@
         <v>4525281.672577284</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11925,17 +11655,11 @@
         <v>4598461.560227284</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11964,17 +11688,11 @@
         <v>4364457.722127284</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -12003,17 +11721,11 @@
         <v>4396630.761127284</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -12042,17 +11754,11 @@
         <v>4396544.761127284</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -12084,14 +11790,8 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -12123,14 +11823,8 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -12162,14 +11856,8 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -12201,14 +11889,8 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -12240,14 +11922,8 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -12279,14 +11955,8 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -12318,14 +11988,8 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -12357,14 +12021,8 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -12396,14 +12054,8 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -12435,14 +12087,8 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -12474,14 +12120,8 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -12513,14 +12153,8 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -12552,14 +12186,8 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -12591,14 +12219,8 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -12630,14 +12252,8 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -12669,14 +12285,8 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12708,14 +12318,8 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12747,14 +12351,8 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12786,14 +12384,8 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12825,14 +12417,8 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12864,14 +12450,8 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12903,14 +12483,8 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12942,14 +12516,8 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12981,14 +12549,8 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -13020,14 +12582,8 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -13059,14 +12615,8 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -13098,14 +12648,8 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -13137,14 +12681,8 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -13176,14 +12714,8 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -13215,14 +12747,8 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -13254,14 +12780,8 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -13293,14 +12813,8 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -13332,14 +12846,8 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -13371,14 +12879,8 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -13410,14 +12912,8 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -13449,14 +12945,8 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -13488,14 +12978,8 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -13527,14 +13011,8 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -13566,14 +13044,8 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -13605,14 +13077,8 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -13644,14 +13110,8 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -13683,14 +13143,8 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -13722,14 +13176,8 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -13761,14 +13209,8 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -13800,14 +13242,8 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13839,14 +13275,8 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13878,14 +13308,8 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13917,14 +13341,8 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13956,14 +13374,8 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13995,14 +13407,8 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -14034,14 +13440,8 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -14073,14 +13473,8 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -14112,14 +13506,8 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -14151,14 +13539,8 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -14190,14 +13572,8 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -14229,14 +13605,8 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -14268,14 +13638,8 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -14307,14 +13671,8 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -14346,14 +13704,8 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -14385,14 +13737,8 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -14424,14 +13770,8 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -14463,14 +13803,8 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -14502,14 +13836,8 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -14541,14 +13869,8 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -14580,14 +13902,8 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -14619,14 +13935,8 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -14658,14 +13968,8 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -14697,14 +14001,8 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -14736,14 +14034,8 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -14775,14 +14067,8 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -14814,14 +14100,8 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -14853,14 +14133,8 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -14892,14 +14166,8 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14931,14 +14199,8 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14970,14 +14232,8 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -15009,14 +14265,8 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -15048,14 +14298,8 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -15087,14 +14331,8 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -15126,14 +14364,8 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -15165,14 +14397,8 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -15204,14 +14430,8 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -15243,14 +14463,8 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -15282,14 +14496,8 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -15321,14 +14529,8 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -15360,14 +14562,8 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -15399,14 +14595,8 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -15438,14 +14628,8 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -15477,14 +14661,8 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -15516,14 +14694,8 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -15555,14 +14727,8 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -15594,14 +14760,8 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -15633,14 +14793,8 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -15669,17 +14823,11 @@
         <v>8081057.913969896</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -15708,17 +14856,11 @@
         <v>6943752.010623084</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -15747,17 +14889,11 @@
         <v>7003950.352523085</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -15786,17 +14922,11 @@
         <v>9710692.197409423</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -15828,14 +14958,8 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -15867,14 +14991,8 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -15906,14 +15024,8 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -15945,14 +15057,8 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -15984,14 +15090,8 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -16023,14 +15123,8 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -16062,14 +15156,8 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -16101,14 +15189,8 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -16140,14 +15222,8 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -16179,14 +15255,8 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -16218,14 +15288,8 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -16257,14 +15321,8 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -16296,14 +15354,8 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -16335,14 +15387,8 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -16374,14 +15420,8 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -16413,14 +15453,8 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -16452,14 +15486,8 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -16491,14 +15519,8 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -16530,14 +15552,8 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -16566,17 +15582,11 @@
         <v>12892200.80554673</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -16605,17 +15615,11 @@
         <v>13352301.51584702</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -16647,14 +15651,8 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -16686,14 +15684,8 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -16725,14 +15717,8 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -16764,14 +15750,8 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -16800,17 +15780,11 @@
         <v>14121931.18132881</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -16839,17 +15813,11 @@
         <v>14582816.44636853</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -16878,17 +15846,11 @@
         <v>16157974.81404493</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -16917,17 +15879,11 @@
         <v>17560705.30070728</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -16959,14 +15915,8 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -16998,14 +15948,8 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -17037,14 +15981,8 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -17076,14 +16014,8 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -17115,14 +16047,8 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -17154,14 +16080,8 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -17193,14 +16113,8 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -17229,23 +16143,15 @@
         <v>17899280.96754245</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
-        <v>1.639021739130435</v>
-      </c>
-      <c r="M428" t="n">
-        <v>1.015731874145007</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M428" t="inlineStr"/>
     </row>
     <row r="429">
       <c r="A429" s="1" t="n">
@@ -17270,7 +16176,7 @@
         <v>17474053.98264245</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -17303,7 +16209,7 @@
         <v>17805697.51254245</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -17336,7 +16242,7 @@
         <v>18057806.84534245</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -17369,7 +16275,7 @@
         <v>17745706.76204245</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -17402,7 +16308,7 @@
         <v>16910164.42978657</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -17435,7 +16341,7 @@
         <v>16258736.35093145</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -17468,7 +16374,7 @@
         <v>15237641.94548196</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -17501,7 +16407,7 @@
         <v>15352426.57708196</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -17534,7 +16440,7 @@
         <v>15660362.53688324</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -17567,7 +16473,7 @@
         <v>15296620.25408324</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -17600,7 +16506,7 @@
         <v>14910099.09198324</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -17633,7 +16539,7 @@
         <v>15197225.97238324</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -17666,7 +16572,7 @@
         <v>15335082.82928324</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -17699,7 +16605,7 @@
         <v>14944462.44253049</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -17732,7 +16638,7 @@
         <v>14708680.79093049</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -17765,7 +16671,7 @@
         <v>14708680.79093049</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -17798,7 +16704,7 @@
         <v>14507340.87625317</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -17831,7 +16737,7 @@
         <v>14688896.6438731</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -17864,7 +16770,7 @@
         <v>14814969.6675731</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -17897,7 +16803,7 @@
         <v>14875807.9836731</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -17930,7 +16836,7 @@
         <v>14652335.13727283</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -17963,7 +16869,7 @@
         <v>14513195.03677283</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -17996,7 +16902,7 @@
         <v>14515589.97576967</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -18029,7 +16935,7 @@
         <v>14506819.16453331</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -18095,7 +17001,7 @@
         <v>14468940.41163331</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -18128,7 +17034,7 @@
         <v>14504886.12292671</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -18161,7 +17067,7 @@
         <v>14557222.59453331</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -18458,7 +17364,7 @@
         <v>13369690.17825831</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -18491,7 +17397,7 @@
         <v>13369499.00475831</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -18524,7 +17430,7 @@
         <v>13369499.00475831</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -18557,7 +17463,7 @@
         <v>13417166.52985831</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -18590,7 +17496,7 @@
         <v>13417166.52985831</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -18623,7 +17529,7 @@
         <v>12648583.99885831</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -18656,7 +17562,7 @@
         <v>12781114.95505831</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -18689,7 +17595,7 @@
         <v>12555250.17895831</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -18722,7 +17628,7 @@
         <v>12776563.02775831</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -18755,7 +17661,7 @@
         <v>12564047.42361678</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -18788,7 +17694,7 @@
         <v>12909655.99321678</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -18821,7 +17727,7 @@
         <v>13030261.99787419</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -18854,7 +17760,7 @@
         <v>13076164.95917419</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -18887,7 +17793,7 @@
         <v>13253147.98247419</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -18920,7 +17826,7 @@
         <v>12903774.94387419</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -18953,7 +17859,7 @@
         <v>12903774.94387419</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -18986,7 +17892,7 @@
         <v>12769701.02687419</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -19019,7 +17925,7 @@
         <v>12235217.30017419</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -19052,7 +17958,7 @@
         <v>12386549.74617419</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -19184,7 +18090,7 @@
         <v>12165868.53064172</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -19217,7 +18123,7 @@
         <v>11857030.00344172</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -19250,7 +18156,7 @@
         <v>11933379.86494172</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -19283,7 +18189,7 @@
         <v>11627651.57464172</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -19316,7 +18222,7 @@
         <v>11107317.27064172</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -19349,7 +18255,7 @@
         <v>10529969.28744172</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -19382,7 +18288,7 @@
         <v>10581027.74274172</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -19415,7 +18321,7 @@
         <v>11059295.59304172</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -21296,7 +20202,7 @@
         <v>12359958.11199185</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -21329,7 +20235,7 @@
         <v>12380484.16719185</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -21362,7 +20268,7 @@
         <v>12380484.16719185</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -21395,7 +20301,7 @@
         <v>12318278.49929185</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -21428,7 +20334,7 @@
         <v>12279521.67059185</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -21461,7 +20367,7 @@
         <v>12394683.32407578</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -21494,7 +20400,7 @@
         <v>12302982.52447578</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -21527,7 +20433,7 @@
         <v>12137844.84715422</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -21560,7 +20466,7 @@
         <v>12292631.18502741</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -21593,7 +20499,7 @@
         <v>12288314.27642741</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -21604,6 +20510,6 @@
       <c r="M560" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest FAB.xlsx
+++ b/BackTest/2020-01-20 BackTest FAB.xlsx
@@ -1944,9 +1944,11 @@
         <v>-1081559.969189899</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>15.6</v>
+      </c>
       <c r="J39" t="n">
         <v>14.72</v>
       </c>
@@ -1983,9 +1985,11 @@
         <v>-1081559.969189899</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>15.4</v>
+      </c>
       <c r="J40" t="n">
         <v>14.72</v>
       </c>
@@ -2022,9 +2026,11 @@
         <v>-1081559.969189899</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>15.4</v>
+      </c>
       <c r="J41" t="n">
         <v>14.72</v>
       </c>
@@ -2061,9 +2067,11 @@
         <v>-1081595.921389899</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>15.4</v>
+      </c>
       <c r="J42" t="n">
         <v>14.72</v>
       </c>
@@ -2551,9 +2559,11 @@
         <v>-1069271.467689899</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>15.58</v>
+      </c>
       <c r="J54" t="n">
         <v>14.72</v>
       </c>
@@ -2590,9 +2600,11 @@
         <v>-893481.0309748797</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>15.58</v>
+      </c>
       <c r="J55" t="n">
         <v>14.72</v>
       </c>
@@ -2629,9 +2641,11 @@
         <v>-893481.0309748797</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>16.27</v>
+      </c>
       <c r="J56" t="n">
         <v>14.72</v>
       </c>
@@ -2668,9 +2682,11 @@
         <v>-834971.5322748797</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>16.27</v>
+      </c>
       <c r="J57" t="n">
         <v>14.72</v>
       </c>
@@ -10624,7 +10640,7 @@
         <v>4372527.422965665</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="n">
@@ -10632,15 +10648,13 @@
       </c>
       <c r="K261" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L261" t="n">
-        <v>1.360489130434783</v>
-      </c>
-      <c r="M261" t="n">
-        <v>1.015731874145007</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10668,8 +10682,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10701,8 +10721,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10734,8 +10760,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10767,8 +10799,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10800,8 +10838,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10833,8 +10877,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10866,8 +10916,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10899,8 +10955,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10932,8 +10994,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10965,8 +11033,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10998,8 +11072,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -11031,8 +11111,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -11064,8 +11150,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -11097,8 +11189,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -11130,8 +11228,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -11163,8 +11267,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -11196,8 +11306,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -11229,8 +11345,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -11262,8 +11384,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -11295,8 +11423,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11325,11 +11459,17 @@
         <v>4057090.205077283</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11358,11 +11498,17 @@
         <v>4045216.586877283</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11391,11 +11537,17 @@
         <v>4329731.590121223</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11424,11 +11576,17 @@
         <v>4432627.188021223</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11457,11 +11615,17 @@
         <v>4534779.826377284</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11490,11 +11654,17 @@
         <v>4573084.420877283</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11523,11 +11693,17 @@
         <v>4583432.668677283</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11556,11 +11732,17 @@
         <v>4519229.818777284</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11589,11 +11771,17 @@
         <v>4600940.766577284</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11622,11 +11810,17 @@
         <v>4525281.672577284</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11655,11 +11849,17 @@
         <v>4598461.560227284</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11688,11 +11888,17 @@
         <v>4364457.722127284</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11721,11 +11927,17 @@
         <v>4396630.761127284</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11754,11 +11966,17 @@
         <v>4396544.761127284</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11790,8 +12008,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11823,8 +12047,14 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11856,8 +12086,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11889,8 +12125,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11922,8 +12164,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11955,8 +12203,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11988,8 +12242,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -12021,8 +12281,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -12054,8 +12320,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -12087,8 +12359,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -12120,8 +12398,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -12153,8 +12437,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -12186,8 +12476,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -12219,8 +12515,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -12252,8 +12554,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -12285,8 +12593,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12318,8 +12632,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12351,8 +12671,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12384,8 +12710,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12417,8 +12749,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12450,8 +12788,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12483,8 +12827,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12516,8 +12866,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12549,8 +12905,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12582,8 +12944,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12615,8 +12983,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12648,8 +13022,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12681,8 +13061,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12714,8 +13100,14 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12747,8 +13139,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12780,8 +13178,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12813,8 +13217,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12846,8 +13256,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12879,8 +13295,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12912,8 +13334,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12945,8 +13373,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12978,8 +13412,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -13011,8 +13451,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -13044,8 +13490,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -13077,8 +13529,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -13110,8 +13568,14 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -13143,8 +13607,14 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -13176,8 +13646,14 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -13209,8 +13685,14 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -13242,8 +13724,14 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13275,8 +13763,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13308,8 +13802,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13341,8 +13841,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13374,8 +13880,14 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13407,8 +13919,14 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13440,8 +13958,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13473,8 +13997,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13506,8 +14036,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13539,8 +14075,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13572,8 +14114,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13605,8 +14153,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13638,8 +14192,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13671,8 +14231,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13704,8 +14270,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13737,8 +14309,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13770,8 +14348,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13803,8 +14387,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13836,8 +14426,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13869,8 +14465,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13902,8 +14504,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13935,8 +14543,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13968,8 +14582,14 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -14001,8 +14621,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -14034,8 +14660,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -14067,8 +14699,14 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -14100,8 +14738,14 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -14133,8 +14777,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -14166,8 +14816,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14199,8 +14855,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14232,8 +14894,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14265,8 +14933,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14298,8 +14972,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14331,8 +15011,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14364,8 +15050,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14397,8 +15089,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14430,8 +15128,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14463,8 +15167,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14496,8 +15206,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14529,8 +15245,14 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14562,8 +15284,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14595,8 +15323,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14628,8 +15362,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14661,8 +15401,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14694,8 +15440,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14727,8 +15479,14 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14760,8 +15518,14 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14793,8 +15557,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14823,11 +15593,17 @@
         <v>8081057.913969896</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14856,11 +15632,17 @@
         <v>6943752.010623084</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14889,11 +15671,17 @@
         <v>7003950.352523085</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14922,11 +15710,17 @@
         <v>9710692.197409423</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14958,8 +15752,14 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14991,8 +15791,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -15024,8 +15830,14 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -15057,8 +15869,14 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -15090,8 +15908,14 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -15123,8 +15947,14 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -15156,8 +15986,14 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -15189,8 +16025,14 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -15222,8 +16064,14 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -15255,8 +16103,14 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -15288,8 +16142,14 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15321,8 +16181,14 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15354,8 +16220,14 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15387,8 +16259,14 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15420,8 +16298,14 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15453,8 +16337,14 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15486,8 +16376,14 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15519,8 +16415,14 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15552,8 +16454,14 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15582,11 +16490,17 @@
         <v>12892200.80554673</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15615,11 +16529,17 @@
         <v>13352301.51584702</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15651,8 +16571,14 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15684,8 +16610,14 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15717,8 +16649,14 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15747,15 +16685,23 @@
         <v>15240820.01654225</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L416" t="n">
-        <v>1</v>
-      </c>
-      <c r="M416" t="inlineStr"/>
+        <v>1.543913043478261</v>
+      </c>
+      <c r="M416" t="n">
+        <v>1.015731874145007</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="n">
@@ -15813,7 +16759,7 @@
         <v>14582816.44636853</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -15846,7 +16792,7 @@
         <v>16157974.81404493</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -15912,7 +16858,7 @@
         <v>17010111.44720728</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -15945,7 +16891,7 @@
         <v>18045494.68800847</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -15978,7 +16924,7 @@
         <v>18438707.50181922</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -16011,7 +16957,7 @@
         <v>17812811.31541922</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -16044,7 +16990,7 @@
         <v>17036811.49283144</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -16077,7 +17023,7 @@
         <v>16823057.18403718</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -16110,7 +17056,7 @@
         <v>17094491.45783718</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -16143,7 +17089,7 @@
         <v>17899280.96754245</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -16176,7 +17122,7 @@
         <v>17474053.98264245</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -16209,7 +17155,7 @@
         <v>17805697.51254245</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -16242,7 +17188,7 @@
         <v>18057806.84534245</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -16275,7 +17221,7 @@
         <v>17745706.76204245</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -16308,7 +17254,7 @@
         <v>16910164.42978657</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -16341,7 +17287,7 @@
         <v>16258736.35093145</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -16374,7 +17320,7 @@
         <v>15237641.94548196</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -16506,7 +17452,7 @@
         <v>14910099.09198324</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -16572,7 +17518,7 @@
         <v>15335082.82928324</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -16638,7 +17584,7 @@
         <v>14708680.79093049</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -16671,7 +17617,7 @@
         <v>14708680.79093049</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -16704,7 +17650,7 @@
         <v>14507340.87625317</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -16770,7 +17716,7 @@
         <v>14814969.6675731</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -16836,7 +17782,7 @@
         <v>14652335.13727283</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -16869,7 +17815,7 @@
         <v>14513195.03677283</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -16902,7 +17848,7 @@
         <v>14515589.97576967</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -16935,7 +17881,7 @@
         <v>14506819.16453331</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -16968,7 +17914,7 @@
         <v>14527207.11633331</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
